--- a/repos/Checklist.xlsx
+++ b/repos/Checklist.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wallisch\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\FHTW-Sem-3-SWE\repos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD684C8-2DA8-4EE9-AD10-72B3724B1846}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5522B04-92D6-4365-8EFE-8B157449DACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11124" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -599,7 +610,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:C34"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,7 +658,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -671,7 +682,7 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -679,7 +690,7 @@
         <v>45</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -687,7 +698,7 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -695,7 +706,7 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -965,6 +976,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100495F7CC252815B47896F98900E10984C" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="afe1b3b164495dc81fdbcdcad6ec8b68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="207955a2-a3fc-4582-b2ea-e4c7d1fb6048" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b6a42bf87c3f8727d31c248fc1697f6" ns2:_="">
     <xsd:import namespace="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
@@ -1096,35 +1122,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0824ED0-660A-437B-A039-7835C5DD208D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1146,9 +1147,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0824ED0-660A-437B-A039-7835C5DD208D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/repos/Checklist.xlsx
+++ b/repos/Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\FHTW-Sem-3-SWE\repos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5522B04-92D6-4365-8EFE-8B157449DACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDB5E6B-EBD0-4B40-862F-D60B8E277FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Checklist MonsterTradingCardsGame</t>
   </si>
@@ -177,13 +177,16 @@
   </si>
   <si>
     <t>Describes design</t>
+  </si>
+  <si>
+    <t>anscheinend</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,8 +241,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,6 +258,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDADBDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -275,6 +296,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -607,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="E47" sqref="E47:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,7 +691,7 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -674,7 +699,10 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -717,12 +745,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
@@ -733,115 +761,160 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
       <c r="C21" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
       <c r="C22" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
       <c r="C23" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
       <c r="C24" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
       <c r="C25" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
       <c r="C26" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E26" s="9"/>
+    </row>
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
       <c r="C29" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
       <c r="C30" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
       <c r="C31" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
       <c r="C32" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
       <c r="C34" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E34" s="11"/>
+    </row>
+    <row r="36" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
@@ -849,109 +922,127 @@
       <c r="C36" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E36" s="12"/>
+    </row>
+    <row r="38" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B38"/>
       <c r="C38"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
       <c r="C39" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="B40">
+        <v>8</v>
+      </c>
       <c r="C40" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E42" s="11"/>
+    </row>
+    <row r="44" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B44"/>
       <c r="C44" s="6"/>
-    </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E44" s="12"/>
+    </row>
+    <row r="46" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C48" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C49" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E49" s="11"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C50" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E50" s="11"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C51" s="6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E51" s="11"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C52" s="6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="E52" s="11"/>
+    </row>
+    <row r="54" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>43</v>
       </c>

--- a/repos/Checklist.xlsx
+++ b/repos/Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\FHTW-Sem-3-SWE\repos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDB5E6B-EBD0-4B40-862F-D60B8E277FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390E32D9-F96D-4CA3-9A61-E92D6A070511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
@@ -179,7 +179,7 @@
     <t>Describes design</t>
   </si>
   <si>
-    <t>anscheinend</t>
+    <t>nix</t>
   </si>
 </sst>
 </file>
@@ -248,7 +248,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +273,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -286,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -299,7 +305,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -634,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47:E52"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,9 +708,6 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -742,7 +746,7 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -830,7 +834,7 @@
       <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="13">
         <v>0</v>
       </c>
       <c r="C26" s="6">
@@ -897,10 +901,13 @@
       <c r="A33" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="B33" s="13">
+        <v>0</v>
+      </c>
       <c r="C33" s="6">
         <v>1</v>
       </c>
-      <c r="E33" s="11"/>
+      <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
@@ -912,7 +919,7 @@
       <c r="C34" s="6">
         <v>2</v>
       </c>
-      <c r="E34" s="11"/>
+      <c r="E34" s="10"/>
     </row>
     <row r="36" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
@@ -959,25 +966,33 @@
       <c r="A41" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
       <c r="C41" s="6">
         <v>5</v>
       </c>
-      <c r="E41" s="11"/>
+      <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
       <c r="C42" s="6">
         <v>3</v>
       </c>
-      <c r="E42" s="11"/>
+      <c r="E42" s="10"/>
     </row>
     <row r="44" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B44"/>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
       <c r="C44" s="6"/>
       <c r="E44" s="12"/>
     </row>
@@ -1048,7 +1063,7 @@
       </c>
       <c r="B54" s="2">
         <f>IF(MIN(B9:B16)=1,SUM(B21:B52),0)</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C54" s="2">
         <f>SUM(C21:C52)</f>
@@ -1067,21 +1082,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100495F7CC252815B47896F98900E10984C" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="afe1b3b164495dc81fdbcdcad6ec8b68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="207955a2-a3fc-4582-b2ea-e4c7d1fb6048" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b6a42bf87c3f8727d31c248fc1697f6" ns2:_="">
     <xsd:import namespace="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
@@ -1213,10 +1213,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0824ED0-660A-437B-A039-7835C5DD208D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1238,19 +1263,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0824ED0-660A-437B-A039-7835C5DD208D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/repos/Checklist.xlsx
+++ b/repos/Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\FHTW-Sem-3-SWE\repos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390E32D9-F96D-4CA3-9A61-E92D6A070511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7D4416-1C29-4A45-A70E-C0B900C99137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,7 +925,9 @@
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B36"/>
+      <c r="B36">
+        <v>3</v>
+      </c>
       <c r="C36" s="6">
         <v>3</v>
       </c>
@@ -1063,7 +1065,7 @@
       </c>
       <c r="B54" s="2">
         <f>IF(MIN(B9:B16)=1,SUM(B21:B52),0)</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C54" s="2">
         <f>SUM(C21:C52)</f>
@@ -1082,6 +1084,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100495F7CC252815B47896F98900E10984C" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="afe1b3b164495dc81fdbcdcad6ec8b68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="207955a2-a3fc-4582-b2ea-e4c7d1fb6048" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b6a42bf87c3f8727d31c248fc1697f6" ns2:_="">
     <xsd:import namespace="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
@@ -1213,35 +1230,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0824ED0-660A-437B-A039-7835C5DD208D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1263,9 +1255,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0824ED0-660A-437B-A039-7835C5DD208D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/repos/Checklist.xlsx
+++ b/repos/Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\FHTW-Sem-3-SWE\repos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7D4416-1C29-4A45-A70E-C0B900C99137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91096F2-2B0D-4927-94B1-029AA6F901FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1084,21 +1084,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100495F7CC252815B47896F98900E10984C" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="afe1b3b164495dc81fdbcdcad6ec8b68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="207955a2-a3fc-4582-b2ea-e4c7d1fb6048" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b6a42bf87c3f8727d31c248fc1697f6" ns2:_="">
     <xsd:import namespace="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
@@ -1230,10 +1215,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0824ED0-660A-437B-A039-7835C5DD208D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1255,19 +1265,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0824ED0-660A-437B-A039-7835C5DD208D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/repos/Checklist.xlsx
+++ b/repos/Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\FHTW-Sem-3-SWE\repos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91096F2-2B0D-4927-94B1-029AA6F901FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DCC412-B867-4D7A-B80C-D39CD69C5FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
@@ -248,7 +248,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,18 +258,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDADBDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -302,11 +290,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -639,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,107 +642,125 @@
     <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
@@ -764,11 +772,13 @@
       <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
@@ -780,7 +790,7 @@
       <c r="C21" s="6">
         <v>3</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
@@ -792,7 +802,7 @@
       <c r="C22" s="6">
         <v>3</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
@@ -804,7 +814,7 @@
       <c r="C23" s="6">
         <v>3</v>
       </c>
-      <c r="E23" s="9"/>
+      <c r="E23" s="14"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
@@ -816,7 +826,7 @@
       <c r="C24" s="6">
         <v>3</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
@@ -828,19 +838,22 @@
       <c r="C25" s="6">
         <v>3</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="9">
         <v>0</v>
       </c>
       <c r="C26" s="6">
         <v>4</v>
       </c>
-      <c r="E26" s="9"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -848,6 +861,7 @@
       </c>
       <c r="B28"/>
       <c r="C28"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
@@ -901,7 +915,7 @@
       <c r="A33" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="9">
         <v>0</v>
       </c>
       <c r="C33" s="6">
@@ -921,6 +935,9 @@
       </c>
       <c r="E34" s="10"/>
     </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="10"/>
+    </row>
     <row r="36" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>30</v>
@@ -933,12 +950,16 @@
       </c>
       <c r="E36" s="12"/>
     </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="10"/>
+    </row>
     <row r="38" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B38"/>
       <c r="C38"/>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
@@ -988,6 +1009,9 @@
       </c>
       <c r="E42" s="10"/>
     </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E43" s="10"/>
+    </row>
     <row r="44" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>36</v>
@@ -998,66 +1022,91 @@
       <c r="C44" s="6"/>
       <c r="E44" s="12"/>
     </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E45" s="10"/>
+    </row>
     <row r="46" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
+      <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
       <c r="C47" s="6">
         <v>1</v>
       </c>
-      <c r="E47" s="11"/>
+      <c r="E47" s="10"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
       <c r="C48" s="6">
         <v>1</v>
       </c>
-      <c r="E48" s="11"/>
+      <c r="E48" s="10"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
       <c r="C49" s="6">
         <v>1</v>
       </c>
-      <c r="E49" s="11"/>
+      <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
       <c r="C50" s="6">
         <v>1</v>
       </c>
-      <c r="E50" s="11"/>
+      <c r="E50" s="10"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="B51">
+        <v>0.5</v>
+      </c>
       <c r="C51" s="6">
         <v>0.5</v>
       </c>
-      <c r="E51" s="11"/>
+      <c r="E51" s="10"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="B52">
+        <v>0.5</v>
+      </c>
       <c r="C52" s="6">
         <v>0.5</v>
       </c>
-      <c r="E52" s="11"/>
+      <c r="E52" s="10"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
@@ -1065,12 +1114,19 @@
       </c>
       <c r="B54" s="2">
         <f>IF(MIN(B9:B16)=1,SUM(B21:B52),0)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2">
         <f>SUM(C21:C52)</f>
         <v>60</v>
       </c>
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E56" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B9:B16">
@@ -1084,6 +1140,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100495F7CC252815B47896F98900E10984C" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="afe1b3b164495dc81fdbcdcad6ec8b68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="207955a2-a3fc-4582-b2ea-e4c7d1fb6048" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b6a42bf87c3f8727d31c248fc1697f6" ns2:_="">
     <xsd:import namespace="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
@@ -1215,35 +1286,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0824ED0-660A-437B-A039-7835C5DD208D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1265,9 +1311,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0824ED0-660A-437B-A039-7835C5DD208D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>